--- a/resources/student-data.xlsx
+++ b/resources/student-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTELLLIJ projects\skill-enhancer\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2F2F66-2359-456D-91C6-779D46E802BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCF870E-7F61-4D72-B352-DB0BE89324A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1F6992B-A482-4E57-9EF6-BA027DAD9446}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F1F6992B-A482-4E57-9EF6-BA027DAD9446}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -126,13 +127,70 @@
   </si>
   <si>
     <t>divesh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anmol </t>
+  </si>
+  <si>
+    <t>B.A</t>
+  </si>
+  <si>
+    <t>anmolc09@gmail.com</t>
+  </si>
+  <si>
+    <t>aditibhati1507@gmail.com</t>
+  </si>
+  <si>
+    <t>samalaman699@gmail.com</t>
+  </si>
+  <si>
+    <t>nikhil rai</t>
+  </si>
+  <si>
+    <t>nickkraii9@gmail.com</t>
+  </si>
+  <si>
+    <t>mariaym</t>
+  </si>
+  <si>
+    <t>perwezmariyam18@gmail.com</t>
+  </si>
+  <si>
+    <t>nikhil negi</t>
+  </si>
+  <si>
+    <t>neginikhil85@gmail.com</t>
+  </si>
+  <si>
+    <t>ashutosh bhardwaj</t>
+  </si>
+  <si>
+    <t>ashutoshbhardwaj72@gmail.com</t>
+  </si>
+  <si>
+    <t>priya kaushik</t>
+  </si>
+  <si>
+    <t>sakshi jain</t>
+  </si>
+  <si>
+    <t>priyakaushik1919@gmail.com</t>
+  </si>
+  <si>
+    <t>sakshijain2090@gmail.com</t>
+  </si>
+  <si>
+    <t>rishabh Kumar Pandey</t>
+  </si>
+  <si>
+    <t>rikartik35@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +206,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +231,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -193,11 +264,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,8 +280,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -525,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B8F37C-E631-43C6-BB1F-3CE69E687451}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="126" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +840,235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B927000-5B53-4DC7-A16C-A6E1A6826AF4}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8076695034</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8368578368</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9716603823</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7053434803</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9911375910</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7291018807</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7011506017</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7291018807</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7291018807</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7291018807</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{ACBBC0BD-A185-4F01-B065-81ACDE9B3D58}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F2A7BEE7-4CFD-42FB-B425-9DE784212D8F}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{2221D1C0-DB8C-4642-A4DD-D6A7E4EA4B2F}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{374CEE28-3A0C-4464-B45C-E7D97F620904}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{623C01B7-0371-41E9-B9E5-F2C81574C409}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{61B5D5AF-AE7D-4E74-8A2B-1608D09EA198}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{2AE58D04-37A9-463D-9A44-CE43F2D8AE10}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{027685E0-E10B-44C5-A4F9-43F5E4ECCA66}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{C666B00A-959E-4788-A745-DE835BB683BB}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{AE96FE9D-3A7A-499D-9A6A-BD8963F5C996}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EE3F516641E6749AAF478748140BC9F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f34abc3372502f3aff2a3748ecdfaaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d6adb12b-0970-432b-b11b-78114fd2e7be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="adbd416617b9dca5eea4f7db275825c3" ns3:_="">
     <xsd:import namespace="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
@@ -893,7 +1200,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -902,13 +1209,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9609FD08-C3F8-49F4-89C3-72503EEF69B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -926,26 +1243,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resources/student-data.xlsx
+++ b/resources/student-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTELLLIJ projects\skill-enhancer\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skill-enhancer-boot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCF870E-7F61-4D72-B352-DB0BE89324A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFA4A19-6B02-4733-8141-1E1CBC9CAA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F1F6992B-A482-4E57-9EF6-BA027DAD9446}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -150,9 +150,6 @@
     <t>nickkraii9@gmail.com</t>
   </si>
   <si>
-    <t>mariaym</t>
-  </si>
-  <si>
     <t>perwezmariyam18@gmail.com</t>
   </si>
   <si>
@@ -184,6 +181,30 @@
   </si>
   <si>
     <t>rikartik35@gmail.com</t>
+  </si>
+  <si>
+    <t>shivam.available0@gmail.com</t>
+  </si>
+  <si>
+    <t>shivam sucksena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunal </t>
+  </si>
+  <si>
+    <t>kunal.available0@gmail.com</t>
+  </si>
+  <si>
+    <t>Divesh bedi</t>
+  </si>
+  <si>
+    <t>diveshbedi466@gmail.com</t>
+  </si>
+  <si>
+    <t>Btech</t>
+  </si>
+  <si>
+    <t>mariyam</t>
   </si>
 </sst>
 </file>
@@ -240,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,13 +284,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -286,6 +320,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -842,10 +883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B927000-5B53-4DC7-A16C-A6E1A6826AF4}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4">
         <v>9911375910</v>
@@ -956,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -964,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4">
         <v>7291018807</v>
@@ -973,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -981,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <v>7011506017</v>
@@ -990,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -998,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>7291018807</v>
@@ -1007,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1015,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <v>7291018807</v>
@@ -1024,24 +1065,75 @@
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="6">
+        <v>7291018807</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4">
-        <v>7291018807</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7838656214</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7428742208</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1148,22 @@
     <hyperlink ref="E9" r:id="rId8" xr:uid="{027685E0-E10B-44C5-A4F9-43F5E4ECCA66}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{C666B00A-959E-4788-A745-DE835BB683BB}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{AE96FE9D-3A7A-499D-9A6A-BD8963F5C996}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{F2BEF43D-6718-4782-B225-ACC19315D0FF}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{A815BC57-8784-43C9-9D44-FCA674120FC8}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{A7871CBA-BBA1-4A82-B4F9-EB06287DA72C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,26 +1299,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1244,9 +1331,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>